--- a/surveys/2017-spring-constructs.xlsx
+++ b/surveys/2017-spring-constructs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jialincheoh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jialincheoh/analysis-2017/surveys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F619208-D8B1-7D49-BB3B-4D08C0E9BC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947045A3-9721-514C-9A53-21A481117A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10700" yWindow="460" windowWidth="29140" windowHeight="20100" xr2:uid="{15F3981F-499F-5140-B657-DF72D51C21E1}"/>
+    <workbookView xWindow="6700" yWindow="460" windowWidth="29140" windowHeight="20100" xr2:uid="{15F3981F-499F-5140-B657-DF72D51C21E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
   <si>
     <t>Number</t>
   </si>
@@ -307,9 +307,6 @@
     <t>I consider myself knowledgeable about good coding techniques on mashup design.</t>
   </si>
   <si>
-    <t>I know somewhat more than most hackers about programming in Javascript </t>
-  </si>
-  <si>
     <t>I know how to find what I am looking for when designing a mashup </t>
   </si>
   <si>
@@ -407,6 +404,15 @@
   </si>
   <si>
     <t>1 Factor</t>
+  </si>
+  <si>
+    <t>I know somewhat more than most programmers about programming in Javascript </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicates primary factor </t>
+  </si>
+  <si>
+    <t>indicates secondary factor</t>
   </si>
 </sst>
 </file>
@@ -465,12 +471,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -523,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,6 +588,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83F1307-98F5-F140-925A-8555A124293F}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -936,7 +963,7 @@
     </row>
     <row r="2" spans="1:13" ht="25" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -989,7 +1016,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>15</v>
@@ -1013,13 +1040,13 @@
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>15</v>
@@ -1095,7 +1122,7 @@
       <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1132,7 +1159,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>41</v>
@@ -1143,7 +1170,7 @@
       <c r="D17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="27" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1157,7 +1184,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>43</v>
@@ -1168,7 +1195,7 @@
     </row>
     <row r="20" spans="1:14" ht="25" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>43</v>
@@ -1190,16 +1217,16 @@
         <v>49</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>38</v>
@@ -1215,7 +1242,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>50</v>
@@ -1226,7 +1253,7 @@
       <c r="D23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="24" t="s">
         <v>53</v>
       </c>
       <c r="M23"/>
@@ -1234,7 +1261,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>52</v>
@@ -1257,7 +1284,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>52</v>
@@ -1280,7 +1307,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>61</v>
@@ -1289,16 +1316,16 @@
         <v>62</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>38</v>
@@ -1327,13 +1354,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>90</v>
+      <c r="E30" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -1350,13 +1377,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>91</v>
+      <c r="E32" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="M32"/>
       <c r="N32"/>
@@ -1373,7 +1400,7 @@
     </row>
     <row r="34" spans="1:14" s="20" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>68</v>
@@ -1385,7 +1412,7 @@
         <v>70</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -1395,16 +1422,16 @@
         <v>71</v>
       </c>
       <c r="F35" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="I35" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>38</v>
@@ -1420,7 +1447,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>50</v>
@@ -1439,7 +1466,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="7" t="s">
@@ -1453,14 +1480,14 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>76</v>
+      <c r="E38" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
@@ -1471,59 +1498,71 @@
         <v>73</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="11"/>
       <c r="E40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="J40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="K40" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="L40" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" s="20" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>94</v>
+      <c r="E41" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="M41" s="22"/>
       <c r="N41" s="21"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="24"/>
+      <c r="C45" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="25"/>
+      <c r="C46" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/surveys/2017-spring-constructs.xlsx
+++ b/surveys/2017-spring-constructs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jialincheoh/analysis-2017/surveys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947045A3-9721-514C-9A53-21A481117A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E31184-057B-464A-8AD1-3AA10A26127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="460" windowWidth="29140" windowHeight="20100" xr2:uid="{15F3981F-499F-5140-B657-DF72D51C21E1}"/>
+    <workbookView xWindow="10500" yWindow="2100" windowWidth="29140" windowHeight="20100" xr2:uid="{15F3981F-499F-5140-B657-DF72D51C21E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,9 +394,6 @@
     <t>Cronbach's alpha = 0.857</t>
   </si>
   <si>
-    <t>Cronbach's alpha = 0.9163</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 Factors </t>
   </si>
   <si>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>indicates secondary factor</t>
+  </si>
+  <si>
+    <t>Cronbach's alpha = 0.8740</t>
   </si>
 </sst>
 </file>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83F1307-98F5-F140-925A-8555A124293F}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>15</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>15</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="20" spans="1:14" ht="25" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>43</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>52</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>64</v>
@@ -1480,14 +1480,14 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="41" spans="1:14" s="20" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="20" t="s">
@@ -1555,13 +1555,13 @@
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45" s="24"/>
       <c r="C45" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" s="25"/>
       <c r="C46" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/surveys/2017-spring-constructs.xlsx
+++ b/surveys/2017-spring-constructs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jialincheoh/analysis-2017/surveys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E31184-057B-464A-8AD1-3AA10A26127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA7DDA1-9F31-184E-9CA0-5736C51CFBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="2100" windowWidth="29140" windowHeight="20100" xr2:uid="{15F3981F-499F-5140-B657-DF72D51C21E1}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="29140" windowHeight="20100" xr2:uid="{15F3981F-499F-5140-B657-DF72D51C21E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,15 +388,6 @@
     <t>Cronbach's alpha = 0.8276</t>
   </si>
   <si>
-    <t>Cronbach's alpha = 0.8797</t>
-  </si>
-  <si>
-    <t>Cronbach's alpha = 0.857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Factors </t>
-  </si>
-  <si>
     <t>2 Factors</t>
   </si>
   <si>
@@ -413,6 +404,15 @@
   </si>
   <si>
     <t>Cronbach's alpha = 0.8740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Factors </t>
+  </si>
+  <si>
+    <t>Cronbach's alpha = 0.8004</t>
+  </si>
+  <si>
+    <t>Cronbach's alpha = 0.8158</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,13 +570,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -590,13 +584,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83F1307-98F5-F140-925A-8555A124293F}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1016,7 +1013,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>15</v>
@@ -1040,18 +1037,18 @@
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1062,7 +1059,7 @@
       <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1070,7 +1067,7 @@
       <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1081,7 +1078,7 @@
       <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1089,7 +1086,7 @@
       <c r="D12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1100,7 +1097,7 @@
       <c r="D13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1111,7 +1108,7 @@
       <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1122,7 +1119,7 @@
       <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1131,28 +1128,28 @@
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="14" t="s">
         <v>40</v>
       </c>
       <c r="M16" s="13"/>
@@ -1167,53 +1164,53 @@
       <c r="C17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="25" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="18" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="19" t="s">
+    <row r="21" spans="1:14" s="16" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="27" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="11" t="s">
@@ -1253,7 +1250,7 @@
       <c r="D23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="28" t="s">
         <v>53</v>
       </c>
       <c r="M23"/>
@@ -1261,12 +1258,12 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="28" t="s">
         <v>54</v>
       </c>
       <c r="M24"/>
@@ -1276,7 +1273,7 @@
       <c r="D25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="28" t="s">
         <v>55</v>
       </c>
       <c r="M25"/>
@@ -1284,26 +1281,26 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="28" t="s">
         <v>56</v>
       </c>
       <c r="M26"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:14" s="20" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="20" t="s">
+    <row r="27" spans="1:14" s="18" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -1312,7 +1309,7 @@
       <c r="B28" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F28" s="11" t="s">
@@ -1346,7 +1343,7 @@
       <c r="D29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="28" t="s">
         <v>65</v>
       </c>
       <c r="M29"/>
@@ -1359,7 +1356,7 @@
       <c r="D30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="28" t="s">
         <v>89</v>
       </c>
       <c r="M30"/>
@@ -1369,7 +1366,7 @@
       <c r="D31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="28" t="s">
         <v>66</v>
       </c>
       <c r="M31"/>
@@ -1377,48 +1374,48 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="28" t="s">
         <v>90</v>
       </c>
       <c r="M32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:14" s="20" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="20" t="s">
+    <row r="33" spans="1:14" s="18" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-    </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="20" t="s">
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" s="18" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="27" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="11" t="s">
@@ -1458,7 +1455,7 @@
       <c r="D36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="28" t="s">
         <v>74</v>
       </c>
       <c r="M36"/>
@@ -1472,7 +1469,7 @@
       <c r="D37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="28" t="s">
         <v>75</v>
       </c>
       <c r="M37"/>
@@ -1480,28 +1477,28 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="24" t="s">
-        <v>108</v>
+      <c r="E38" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
     </row>
-    <row r="39" spans="1:14" s="20" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="23"/>
-      <c r="D39" s="20" t="s">
+    <row r="39" spans="1:14" s="18" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="21"/>
+      <c r="D39" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
@@ -1511,7 +1508,7 @@
         <v>101</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="28" t="s">
         <v>77</v>
       </c>
       <c r="F40" s="11" t="s">
@@ -1538,30 +1535,30 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" s="20" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="20" t="s">
+    <row r="41" spans="1:14" s="18" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" s="20"/>
+      <c r="N41" s="19"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="22"/>
+      <c r="C45" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="23"/>
+      <c r="C46" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="21"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
-      <c r="C45" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="25"/>
-      <c r="C46" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/surveys/2017-spring-constructs.xlsx
+++ b/surveys/2017-spring-constructs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jialincheoh/analysis-2017/surveys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA7DDA1-9F31-184E-9CA0-5736C51CFBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A786BF8-B35F-634A-9C49-863A219FADF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="29140" windowHeight="20100" xr2:uid="{15F3981F-499F-5140-B657-DF72D51C21E1}"/>
+    <workbookView xWindow="1040" yWindow="820" windowWidth="29140" windowHeight="20100" xr2:uid="{15F3981F-499F-5140-B657-DF72D51C21E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,15 +379,9 @@
     <t>Neither Agree nor Disagree</t>
   </si>
   <si>
-    <t xml:space="preserve">Cronbach's alpha = 0.8848 </t>
-  </si>
-  <si>
     <t>Cronbach's alpha = 0.8793</t>
   </si>
   <si>
-    <t>Cronbach's alpha = 0.8276</t>
-  </si>
-  <si>
     <t>2 Factors</t>
   </si>
   <si>
@@ -413,6 +407,12 @@
   </si>
   <si>
     <t>Cronbach's alpha = 0.8158</t>
+  </si>
+  <si>
+    <t>Cronbach's alpha = 0.7834</t>
+  </si>
+  <si>
+    <t>Cronbach's alpha = 0.8772</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -537,11 +537,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -594,6 +603,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83F1307-98F5-F140-925A-8555A124293F}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1013,7 +1024,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>15</v>
@@ -1043,7 +1054,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>15</v>
@@ -1181,7 +1192,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>43</v>
@@ -1192,7 +1203,7 @@
     </row>
     <row r="20" spans="1:14" ht="25" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>43</v>
@@ -1258,7 +1269,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>52</v>
@@ -1281,7 +1292,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>52</v>
@@ -1351,7 +1362,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>64</v>
@@ -1374,7 +1385,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>64</v>
@@ -1463,7 +1474,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="7" t="s">
@@ -1477,20 +1488,22 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
     </row>
     <row r="39" spans="1:14" s="18" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="21"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="18" t="s">
         <v>73</v>
       </c>
@@ -1505,7 +1518,7 @@
         <v>92</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="11"/>
       <c r="E40" s="28" t="s">
@@ -1537,7 +1550,7 @@
     </row>
     <row r="41" spans="1:14" s="18" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="18" t="s">
@@ -1552,13 +1565,13 @@
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45" s="22"/>
       <c r="C45" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" s="23"/>
       <c r="C46" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/surveys/2017-spring-constructs.xlsx
+++ b/surveys/2017-spring-constructs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jialincheoh/analysis-2017/surveys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A786BF8-B35F-634A-9C49-863A219FADF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D778A22-A888-6E49-9E8C-A637A5A198C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="820" windowWidth="29140" windowHeight="20100" xr2:uid="{15F3981F-499F-5140-B657-DF72D51C21E1}"/>
+    <workbookView xWindow="5060" yWindow="460" windowWidth="29140" windowHeight="20100" xr2:uid="{15F3981F-499F-5140-B657-DF72D51C21E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
   <si>
     <t>Number</t>
   </si>
@@ -389,12 +389,6 @@
   </si>
   <si>
     <t>I know somewhat more than most programmers about programming in Javascript </t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicates primary factor </t>
-  </si>
-  <si>
-    <t>indicates secondary factor</t>
   </si>
   <si>
     <t>Cronbach's alpha = 0.8740</t>
@@ -471,24 +465,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -550,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -591,8 +573,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -921,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83F1307-98F5-F140-925A-8555A124293F}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1004,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>15</v>
@@ -1054,7 +1034,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>15</v>
@@ -1139,7 +1119,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="22" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="14" t="s">
@@ -1192,7 +1172,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>43</v>
@@ -1208,7 +1188,7 @@
       <c r="D20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1216,12 +1196,12 @@
       <c r="D21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="25" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="11" t="s">
@@ -1261,7 +1241,7 @@
       <c r="D23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="26" t="s">
         <v>53</v>
       </c>
       <c r="M23"/>
@@ -1269,12 +1249,12 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="26" t="s">
         <v>54</v>
       </c>
       <c r="M24"/>
@@ -1284,7 +1264,7 @@
       <c r="D25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="26" t="s">
         <v>55</v>
       </c>
       <c r="M25"/>
@@ -1297,7 +1277,7 @@
       <c r="D26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="26" t="s">
         <v>56</v>
       </c>
       <c r="M26"/>
@@ -1307,7 +1287,7 @@
       <c r="D27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="27" t="s">
         <v>57</v>
       </c>
       <c r="M27" s="19"/>
@@ -1320,7 +1300,7 @@
       <c r="B28" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="25" t="s">
         <v>62</v>
       </c>
       <c r="F28" s="11" t="s">
@@ -1354,7 +1334,7 @@
       <c r="D29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="26" t="s">
         <v>65</v>
       </c>
       <c r="M29"/>
@@ -1362,12 +1342,12 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="26" t="s">
         <v>89</v>
       </c>
       <c r="M30"/>
@@ -1377,7 +1357,7 @@
       <c r="D31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="26" t="s">
         <v>66</v>
       </c>
       <c r="M31"/>
@@ -1390,7 +1370,7 @@
       <c r="D32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="26" t="s">
         <v>90</v>
       </c>
       <c r="M32"/>
@@ -1400,7 +1380,7 @@
       <c r="D33" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="27" t="s">
         <v>67</v>
       </c>
       <c r="M33" s="19"/>
@@ -1416,7 +1396,7 @@
       <c r="D34" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="27" t="s">
         <v>70</v>
       </c>
       <c r="F34" s="18" t="s">
@@ -1426,7 +1406,7 @@
       <c r="N34" s="20"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="25" t="s">
         <v>71</v>
       </c>
       <c r="F35" s="11" t="s">
@@ -1466,7 +1446,7 @@
       <c r="D36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="26" t="s">
         <v>74</v>
       </c>
       <c r="M36"/>
@@ -1474,13 +1454,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="26" t="s">
         <v>75</v>
       </c>
       <c r="M37"/>
@@ -1494,20 +1474,20 @@
       <c r="D38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="26" t="s">
         <v>103</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
     </row>
     <row r="39" spans="1:14" s="18" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="27" t="s">
         <v>76</v>
       </c>
       <c r="M39" s="19"/>
@@ -1521,7 +1501,7 @@
         <v>100</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="26" t="s">
         <v>77</v>
       </c>
       <c r="F40" s="11" t="s">
@@ -1556,23 +1536,17 @@
       <c r="D41" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="27" t="s">
         <v>93</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="19"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
-      <c r="C45" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
-      <c r="C46" s="7" t="s">
-        <v>105</v>
-      </c>
+      <c r="B46" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
